--- a/Kütle Bütçesi/Kütle Bütçesi.xlsx
+++ b/Kütle Bütçesi/Kütle Bütçesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET HUSREV EROL\Desktop\excelsablonlari-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHMET HUSREV EROL\Desktop\excelsablonlari-main\Kütle Bütçesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD6D77-19A2-46B8-8B6F-0A762B666DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2AF912-FA39-4DD6-8DFE-84B4313F7F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +73,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -427,140 +434,140 @@
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,107 +857,108 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="S11" sqref="L11:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" customWidth="1"/>
     <col min="10" max="10" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+    <row r="1" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="L4" s="44" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -960,425 +968,425 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="25"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="41"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="42"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="43"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="37"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="11"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I35" s="45"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I36" s="40"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I37" s="40"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I38" s="40"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1403,5 +1411,6 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>